--- a/biology/Médecine/Óscar_Moreno/Óscar_Moreno.xlsx
+++ b/biology/Médecine/Óscar_Moreno/Óscar_Moreno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%93scar_Moreno</t>
+          <t>Óscar_Moreno</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Óscar Moreno (Porto, 16 novembre 1878 - Porto, 26 mai 1971), est un chirurgien urologue portugais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%93scar_Moreno</t>
+          <t>Óscar_Moreno</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Porto, dans la paroisse de Victoria, fils de Joseph Laurent Russo, revendeur et Lucinda Sousa Martins Ribeiro, la sœur du Dr. Rodrigo de Sousa  Moreno, médecin de l'école de médecine de Porto et administrateur du comté de Gondomar. 
 Il fit ses études de médecine à l'École de la médecine-chirurgie Porto sous l'influence de son oncle, le Dr. Rodrigo de Sousa  Moreno, et les termina en 1908, un disciple de Roberto Frias a été pour l'Ecole de Médecine de Paris (Hôpital Necker) disciple de Marie Curie[pas clair], et spécialisée en urologie complété son doctorat en médecine en l'année de 1911, dont la thèse À propos de fonctions rénales a reçu un avis du 20.[Quoi ?]
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%93scar_Moreno</t>
+          <t>Óscar_Moreno</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>"Le volume des urines et la concentration maximale. Diagnostiqué signification de la pyurie", en collaboration avec Heitz Boyer, Presse Médicale, Mars 29, 1911;
 "Des injections de pâte bismuthée en chirurgie urinaire", en collaboration avec Heitz Boyer, Anal. Des mal. des voies urinaires, 11, 1910;
